--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Sema6d-Kdr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H2">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I2">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J2">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N2">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O2">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P2">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q2">
-        <v>4310.205705873524</v>
+        <v>5493.46201363401</v>
       </c>
       <c r="R2">
-        <v>38791.85135286173</v>
+        <v>49441.1581227061</v>
       </c>
       <c r="S2">
-        <v>0.4046339705438462</v>
+        <v>0.5474989927450192</v>
       </c>
       <c r="T2">
-        <v>0.4046339705438461</v>
+        <v>0.5474989927450193</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H3">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I3">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J3">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,28 +623,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N3">
         <v>0.150717</v>
       </c>
       <c r="O3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P3">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q3">
-        <v>1.553434475485667</v>
+        <v>2.708976740824666</v>
       </c>
       <c r="R3">
-        <v>13.980910279371</v>
+        <v>24.380790667422</v>
       </c>
       <c r="S3">
-        <v>0.0001458334944290259</v>
+        <v>0.0002699867648652503</v>
       </c>
       <c r="T3">
-        <v>0.0001458334944290259</v>
+        <v>0.0002699867648652503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H4">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I4">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J4">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N4">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P4">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q4">
-        <v>130.5077802677374</v>
+        <v>185.7191500229707</v>
       </c>
       <c r="R4">
-        <v>1174.570022409637</v>
+        <v>1671.472350206736</v>
       </c>
       <c r="S4">
-        <v>0.01225182390822717</v>
+        <v>0.01850946585571709</v>
       </c>
       <c r="T4">
-        <v>0.01225182390822717</v>
+        <v>0.01850946585571709</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H5">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I5">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J5">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N5">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O5">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P5">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q5">
-        <v>24.59078415747178</v>
+        <v>3.811928954071778</v>
       </c>
       <c r="R5">
-        <v>221.317057417246</v>
+        <v>34.30736058664601</v>
       </c>
       <c r="S5">
-        <v>0.002308536369590266</v>
+        <v>0.0003799111120801712</v>
       </c>
       <c r="T5">
-        <v>0.002308536369590265</v>
+        <v>0.0003799111120801712</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H6">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I6">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J6">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N6">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O6">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P6">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q6">
-        <v>25.59704260480811</v>
+        <v>75.63141974104889</v>
       </c>
       <c r="R6">
-        <v>230.373383443273</v>
+        <v>680.68277766944</v>
       </c>
       <c r="S6">
-        <v>0.002403002012003606</v>
+        <v>0.007537710468431529</v>
       </c>
       <c r="T6">
-        <v>0.002403002012003605</v>
+        <v>0.007537710468431531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.92088766666666</v>
+        <v>53.92178866666666</v>
       </c>
       <c r="H7">
-        <v>92.76266299999999</v>
+        <v>161.765366</v>
       </c>
       <c r="I7">
-        <v>0.4394483058295039</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="J7">
-        <v>0.4394483058295038</v>
+        <v>0.5991862523497352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N7">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P7">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q7">
-        <v>188.5970997434696</v>
+        <v>250.7449987079754</v>
       </c>
       <c r="R7">
-        <v>1697.373897691227</v>
+        <v>2256.704988371778</v>
       </c>
       <c r="S7">
-        <v>0.01770513950140764</v>
+        <v>0.02499018540362184</v>
       </c>
       <c r="T7">
-        <v>0.01770513950140763</v>
+        <v>0.02499018540362184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>53.476874</v>
       </c>
       <c r="I8">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J8">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N8">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O8">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P8">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q8">
-        <v>2484.796360870748</v>
+        <v>1816.04494949118</v>
       </c>
       <c r="R8">
-        <v>22363.16724783673</v>
+        <v>16344.40454542062</v>
       </c>
       <c r="S8">
-        <v>0.2332679890711307</v>
+        <v>0.1809938392508092</v>
       </c>
       <c r="T8">
-        <v>0.2332679890711306</v>
+        <v>0.1809938392508092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>53.476874</v>
       </c>
       <c r="I9">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J9">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -995,28 +995,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N9">
         <v>0.150717</v>
       </c>
       <c r="O9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P9">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q9">
-        <v>0.8955415576286667</v>
+        <v>0.8955415576286666</v>
       </c>
       <c r="R9">
         <v>8.059874018658</v>
       </c>
       <c r="S9">
-        <v>8.4071749929826E-05</v>
+        <v>8.925302469483252E-05</v>
       </c>
       <c r="T9">
-        <v>8.407174992982596E-05</v>
+        <v>8.925302469483252E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>53.476874</v>
       </c>
       <c r="I10">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J10">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N10">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P10">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q10">
-        <v>75.23660808872511</v>
+        <v>61.39558689692267</v>
       </c>
       <c r="R10">
-        <v>677.129472798526</v>
+        <v>552.5602820723041</v>
       </c>
       <c r="S10">
-        <v>0.007063070660341566</v>
+        <v>0.006118914065780218</v>
       </c>
       <c r="T10">
-        <v>0.007063070660341563</v>
+        <v>0.006118914065780219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>53.476874</v>
       </c>
       <c r="I11">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J11">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N11">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O11">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P11">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q11">
-        <v>14.17637466865644</v>
+        <v>1.260158768310444</v>
       </c>
       <c r="R11">
-        <v>127.587372017908</v>
+        <v>11.341428914794</v>
       </c>
       <c r="S11">
-        <v>0.001330851277533894</v>
+        <v>0.0001255921411009029</v>
       </c>
       <c r="T11">
-        <v>0.001330851277533894</v>
+        <v>0.0001255921411009029</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>53.476874</v>
       </c>
       <c r="I12">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J12">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N12">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O12">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P12">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q12">
-        <v>14.75647397218378</v>
+        <v>25.00245883246222</v>
       </c>
       <c r="R12">
-        <v>132.808265749654</v>
+        <v>225.02212949216</v>
       </c>
       <c r="S12">
-        <v>0.00138530990445653</v>
+        <v>0.002491838660747653</v>
       </c>
       <c r="T12">
-        <v>0.00138530990445653</v>
+        <v>0.002491838660747653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>53.476874</v>
       </c>
       <c r="I13">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="J13">
-        <v>0.2533381526612474</v>
+        <v>0.1980807666793088</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N13">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P13">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q13">
-        <v>108.7245990312607</v>
+        <v>82.89202462557134</v>
       </c>
       <c r="R13">
-        <v>978.5213912813459</v>
+        <v>746.0282216301422</v>
       </c>
       <c r="S13">
-        <v>0.01020685999785495</v>
+        <v>0.008261329536176022</v>
       </c>
       <c r="T13">
-        <v>0.01020685999785494</v>
+        <v>0.008261329536176022</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H14">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I14">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J14">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N14">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O14">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P14">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q14">
-        <v>50.47056733991322</v>
+        <v>2.874021770988111</v>
       </c>
       <c r="R14">
-        <v>454.2351060592189</v>
+        <v>25.866195938893</v>
       </c>
       <c r="S14">
-        <v>0.004738081532981225</v>
+        <v>0.0002864357705283079</v>
       </c>
       <c r="T14">
-        <v>0.004738081532981223</v>
+        <v>0.0002864357705283079</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H15">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I15">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J15">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,28 +1367,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N15">
         <v>0.150717</v>
       </c>
       <c r="O15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P15">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q15">
-        <v>0.01819001798366667</v>
+        <v>0.001417258936333333</v>
       </c>
       <c r="R15">
-        <v>0.163710161853</v>
+        <v>0.012755330427</v>
       </c>
       <c r="S15">
-        <v>1.707644530971021E-06</v>
+        <v>1.412493320561028E-07</v>
       </c>
       <c r="T15">
-        <v>1.70764453097102E-06</v>
+        <v>1.412493320561028E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H16">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I16">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J16">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N16">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P16">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q16">
-        <v>1.528187321410111</v>
+        <v>0.09716293279733333</v>
       </c>
       <c r="R16">
-        <v>13.753685892691</v>
+        <v>0.874466395176</v>
       </c>
       <c r="S16">
-        <v>0.0001434633392912786</v>
+        <v>9.683621677307571E-06</v>
       </c>
       <c r="T16">
-        <v>0.0001434633392912785</v>
+        <v>9.683621677307571E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H17">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I17">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J17">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N17">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O17">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P17">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q17">
-        <v>0.2879470058864445</v>
+        <v>0.001994291901222222</v>
       </c>
       <c r="R17">
-        <v>2.591523052978</v>
+        <v>0.017948627111</v>
       </c>
       <c r="S17">
-        <v>2.703192103784551E-05</v>
+        <v>1.987585978475576E-07</v>
       </c>
       <c r="T17">
-        <v>2.70319210378455E-05</v>
+        <v>1.987585978475576E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H18">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I18">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J18">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N18">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O18">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P18">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q18">
-        <v>0.2997298390487778</v>
+        <v>0.03956818967111111</v>
       </c>
       <c r="R18">
-        <v>2.697568551439</v>
+        <v>0.35611370704</v>
       </c>
       <c r="S18">
-        <v>2.813807115969089E-05</v>
+        <v>3.943513932727905E-06</v>
       </c>
       <c r="T18">
-        <v>2.813807115969087E-05</v>
+        <v>3.943513932727904E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3620696666666667</v>
+        <v>0.02821033333333333</v>
       </c>
       <c r="H19">
-        <v>1.086209</v>
+        <v>0.084631</v>
       </c>
       <c r="I19">
-        <v>0.005145741717513648</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="J19">
-        <v>0.005145741717513646</v>
+        <v>0.0003134770623435578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N19">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P19">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q19">
-        <v>2.208387086895667</v>
+        <v>0.1311825918636667</v>
       </c>
       <c r="R19">
-        <v>19.875483782061</v>
+        <v>1.180643326773</v>
       </c>
       <c r="S19">
-        <v>0.0002073192085126372</v>
+        <v>1.30741482753108E-05</v>
       </c>
       <c r="T19">
-        <v>0.0002073192085126371</v>
+        <v>1.30741482753108E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H20">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I20">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J20">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N20">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O20">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P20">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q20">
-        <v>2832.946391601579</v>
+        <v>1826.880423495871</v>
       </c>
       <c r="R20">
-        <v>25496.51752441422</v>
+        <v>16441.92381146284</v>
       </c>
       <c r="S20">
-        <v>0.2659516563697958</v>
+        <v>0.1820737431599942</v>
       </c>
       <c r="T20">
-        <v>0.2659516563697958</v>
+        <v>0.1820737431599942</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H21">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I21">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J21">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -1739,28 +1739,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N21">
         <v>0.150717</v>
       </c>
       <c r="O21">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P21">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q21">
-        <v>1.021017763936333</v>
+        <v>0.9008848269516667</v>
       </c>
       <c r="R21">
-        <v>9.189159875427</v>
+        <v>8.107963442565</v>
       </c>
       <c r="S21">
-        <v>9.585121917832683E-05</v>
+        <v>8.978555492168171E-05</v>
       </c>
       <c r="T21">
-        <v>9.585121917832679E-05</v>
+        <v>8.978555492168169E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H22">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I22">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J22">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N22">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O22">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P22">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q22">
-        <v>85.77816707949654</v>
+        <v>61.76190507974668</v>
       </c>
       <c r="R22">
-        <v>772.0035037154689</v>
+        <v>555.8571457177201</v>
       </c>
       <c r="S22">
-        <v>0.008052692307481391</v>
+        <v>0.006155422707438715</v>
       </c>
       <c r="T22">
-        <v>0.008052692307481388</v>
+        <v>0.006155422707438715</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H23">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I23">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J23">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N23">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O23">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P23">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q23">
-        <v>16.16265626270022</v>
+        <v>1.267677534616111</v>
       </c>
       <c r="R23">
-        <v>145.463906364302</v>
+        <v>11.409097811545</v>
       </c>
       <c r="S23">
-        <v>0.001517319641890813</v>
+        <v>0.0001263414895024793</v>
       </c>
       <c r="T23">
-        <v>0.001517319641890812</v>
+        <v>0.0001263414895024794</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H24">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I24">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J24">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N24">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O24">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P24">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q24">
-        <v>16.82403449657789</v>
+        <v>25.15163657875556</v>
       </c>
       <c r="R24">
-        <v>151.416310469201</v>
+        <v>226.3647292088</v>
       </c>
       <c r="S24">
-        <v>0.001579408581274962</v>
+        <v>0.002506706273490377</v>
       </c>
       <c r="T24">
-        <v>0.001579408581274961</v>
+        <v>0.002506706273490377</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>20.32321033333333</v>
+        <v>17.93198166666667</v>
       </c>
       <c r="H25">
-        <v>60.96963099999999</v>
+        <v>53.795945</v>
       </c>
       <c r="I25">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="J25">
-        <v>0.2888338926837407</v>
+        <v>0.1992626201344142</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N25">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O25">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P25">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q25">
-        <v>123.9582306841443</v>
+        <v>83.38660179904835</v>
       </c>
       <c r="R25">
-        <v>1115.624076157299</v>
+        <v>750.4794161914351</v>
       </c>
       <c r="S25">
-        <v>0.01163696456411938</v>
+        <v>0.008310620949066708</v>
       </c>
       <c r="T25">
-        <v>0.01163696456411937</v>
+        <v>0.008310620949066708</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H26">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I26">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J26">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N26">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O26">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P26">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q26">
-        <v>19.54447465415988</v>
+        <v>19.69851553779778</v>
       </c>
       <c r="R26">
-        <v>175.900271887439</v>
+        <v>177.28663984018</v>
       </c>
       <c r="S26">
-        <v>0.001834798364896958</v>
+        <v>0.001963227813125808</v>
       </c>
       <c r="T26">
-        <v>0.001834798364896957</v>
+        <v>0.001963227813125808</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H27">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I27">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J27">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2111,28 +2111,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N27">
         <v>0.150717</v>
       </c>
       <c r="O27">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P27">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q27">
-        <v>0.007043993443666667</v>
+        <v>0.009713878113333334</v>
       </c>
       <c r="R27">
-        <v>0.063395940993</v>
+        <v>0.08742490302</v>
       </c>
       <c r="S27">
-        <v>6.612767997851329E-07</v>
+        <v>9.681214632045351E-07</v>
       </c>
       <c r="T27">
-        <v>6.612767997851327E-07</v>
+        <v>9.681214632045349E-07</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H28">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I28">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J28">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N28">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O28">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P28">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q28">
-        <v>0.5917828933634444</v>
+        <v>0.6659537379733333</v>
       </c>
       <c r="R28">
-        <v>5.326046040271</v>
+        <v>5.993583641760001</v>
       </c>
       <c r="S28">
-        <v>5.555546026846693E-05</v>
+        <v>6.637144297171285E-05</v>
       </c>
       <c r="T28">
-        <v>5.555546026846691E-05</v>
+        <v>6.637144297171285E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H29">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I29">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J29">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N29">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O29">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P29">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q29">
-        <v>0.1115060371797778</v>
+        <v>0.01366885609555556</v>
       </c>
       <c r="R29">
-        <v>1.003554334618</v>
+        <v>0.12301970486</v>
       </c>
       <c r="S29">
-        <v>1.046797615765283E-05</v>
+        <v>1.362289377030335E-06</v>
       </c>
       <c r="T29">
-        <v>1.046797615765282E-05</v>
+        <v>1.362289377030335E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H30">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I30">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J30">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N30">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O30">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P30">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q30">
-        <v>0.1160688803621111</v>
+        <v>0.2711999633777778</v>
       </c>
       <c r="R30">
-        <v>1.044619923259</v>
+        <v>2.4407996704</v>
       </c>
       <c r="S30">
-        <v>1.089632725730464E-05</v>
+        <v>2.702880376951883E-05</v>
       </c>
       <c r="T30">
-        <v>1.089632725730464E-05</v>
+        <v>2.702880376951883E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.1402096666666666</v>
+        <v>0.1933533333333333</v>
       </c>
       <c r="H31">
-        <v>0.420629</v>
+        <v>0.58006</v>
       </c>
       <c r="I31">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="J31">
-        <v>0.001992662731478056</v>
+        <v>0.002148568547967106</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N31">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O31">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P31">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q31">
-        <v>0.8551868489156665</v>
+        <v>0.8991241298866669</v>
       </c>
       <c r="R31">
-        <v>7.696681640241</v>
+        <v>8.092117168980002</v>
       </c>
       <c r="S31">
-        <v>8.028332609788912E-05</v>
+        <v>8.96100772598313E-05</v>
       </c>
       <c r="T31">
-        <v>8.028332609788909E-05</v>
+        <v>8.961007725983128E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H32">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I32">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J32">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>139.3946303333333</v>
+        <v>101.8783343333333</v>
       </c>
       <c r="N32">
-        <v>418.183891</v>
+        <v>305.635003</v>
       </c>
       <c r="O32">
-        <v>0.9207771771472824</v>
+        <v>0.9137375742483709</v>
       </c>
       <c r="P32">
-        <v>0.9207771771472822</v>
+        <v>0.913737574248371</v>
       </c>
       <c r="Q32">
-        <v>110.2565990357424</v>
+        <v>9.244440057406667</v>
       </c>
       <c r="R32">
-        <v>992.3093913216818</v>
+        <v>83.19996051666</v>
       </c>
       <c r="S32">
-        <v>0.01035068126463159</v>
+        <v>0.0009213355088940926</v>
       </c>
       <c r="T32">
-        <v>0.01035068126463159</v>
+        <v>0.0009213355088940927</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H33">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I33">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J33">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2483,28 +2483,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M33">
-        <v>0.05023900000000001</v>
+        <v>0.050239</v>
       </c>
       <c r="N33">
         <v>0.150717</v>
       </c>
       <c r="O33">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="P33">
-        <v>0.0003318558576616883</v>
+        <v>0.0004505890510780002</v>
       </c>
       <c r="Q33">
-        <v>0.03973740785933334</v>
+        <v>0.00455868686</v>
       </c>
       <c r="R33">
-        <v>0.357636670734</v>
+        <v>0.04102818174</v>
       </c>
       <c r="S33">
-        <v>3.730472793753501E-06</v>
+        <v>4.543358009749655E-07</v>
       </c>
       <c r="T33">
-        <v>3.7304727937535E-06</v>
+        <v>4.543358009749655E-07</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H34">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I34">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J34">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>4.220699666666667</v>
+        <v>3.444232</v>
       </c>
       <c r="N34">
-        <v>12.662099</v>
+        <v>10.332696</v>
       </c>
       <c r="O34">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="P34">
-        <v>0.02788001170035368</v>
+        <v>0.03089100556484967</v>
       </c>
       <c r="Q34">
-        <v>3.338435560144222</v>
+        <v>0.31252961168</v>
       </c>
       <c r="R34">
-        <v>30.045920041298</v>
+        <v>2.81276650512</v>
       </c>
       <c r="S34">
-        <v>0.0003134060247438139</v>
+        <v>3.114787126462723E-05</v>
       </c>
       <c r="T34">
-        <v>0.0003134060247438139</v>
+        <v>3.114787126462723E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H35">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I35">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J35">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.7952806666666667</v>
+        <v>0.07069366666666667</v>
       </c>
       <c r="N35">
-        <v>2.385842</v>
+        <v>0.212081</v>
       </c>
       <c r="O35">
-        <v>0.005253260369800871</v>
+        <v>0.0006340451079949399</v>
       </c>
       <c r="P35">
-        <v>0.00525326036980087</v>
+        <v>0.00063404510799494</v>
       </c>
       <c r="Q35">
-        <v>0.6290410281648888</v>
+        <v>0.006414743313333334</v>
       </c>
       <c r="R35">
-        <v>5.661369253484001</v>
+        <v>0.05773268982000001</v>
       </c>
       <c r="S35">
-        <v>5.905318359040082E-05</v>
+        <v>6.393173365086331E-07</v>
       </c>
       <c r="T35">
-        <v>5.90531835904008E-05</v>
+        <v>6.393173365086332E-07</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H36">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I36">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J36">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8278236666666666</v>
+        <v>1.402613333333333</v>
       </c>
       <c r="N36">
-        <v>2.483471</v>
+        <v>4.20784</v>
       </c>
       <c r="O36">
-        <v>0.005468224544563193</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="P36">
-        <v>0.005468224544563191</v>
+        <v>0.01257991223742545</v>
       </c>
       <c r="Q36">
-        <v>0.6547814780935555</v>
+        <v>0.1272731338666667</v>
       </c>
       <c r="R36">
-        <v>5.893033302841999</v>
+        <v>1.1454582048</v>
       </c>
       <c r="S36">
-        <v>6.146964841110027E-05</v>
+        <v>1.268451705364689E-05</v>
       </c>
       <c r="T36">
-        <v>6.146964841110025E-05</v>
+        <v>1.268451705364689E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.7909673333333332</v>
+        <v>0.09074</v>
       </c>
       <c r="H37">
-        <v>2.372902</v>
+        <v>0.27222</v>
       </c>
       <c r="I37">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="J37">
-        <v>0.01124124437651646</v>
+        <v>0.001008315226231089</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.099343</v>
+        <v>4.650161000000001</v>
       </c>
       <c r="N37">
-        <v>18.298029</v>
+        <v>13.950483</v>
       </c>
       <c r="O37">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="P37">
-        <v>0.04028947038033828</v>
+        <v>0.04170687379028095</v>
       </c>
       <c r="Q37">
-        <v>4.824381067795333</v>
+        <v>0.4219556091400001</v>
       </c>
       <c r="R37">
-        <v>43.419429610158</v>
+        <v>3.797600482260001</v>
       </c>
       <c r="S37">
-        <v>0.0004529037823458042</v>
+        <v>4.205367588123862E-05</v>
       </c>
       <c r="T37">
-        <v>0.0004529037823458041</v>
+        <v>4.205367588123862E-05</v>
       </c>
     </row>
   </sheetData>
